--- a/sfnform/static/sfnform/media/sapfluxnet_metada_template_20160502.xlsx
+++ b/sfnform/static/sfnform/media/sapfluxnet_metada_template_20160502.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10470" windowHeight="8085" tabRatio="796"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10470" windowHeight="8085" tabRatio="796" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="site_md" sheetId="1" r:id="rId1"/>
@@ -5256,7 +5256,7 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
   <cols>
@@ -5640,7 +5640,9 @@
   </sheetPr>
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="50.1" customHeight="1"/>
   <cols>
@@ -7574,7 +7576,7 @@
   </sheetPr>
   <dimension ref="A1:CY37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
@@ -11015,7 +11017,7 @@
       <formula1>azimut_int</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="pl_code" prompt="Plant internal code. It is automatically created and must not be modified." sqref="D25:CY25"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Zero flow determination" prompt="Please select an option from the list indicating the method used to determine zero flow.  If in doubt, values and explanations can be found in the &quot;plant_dic&quot; sheet." sqref="D17:CY17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Species-specific calibration" prompt="Please indicate if species-specific calibration was used." sqref="D17:CY17">
       <formula1>sens_calib</formula1>
     </dataValidation>
   </dataValidations>
